--- a/kodovani/OE_podklad-kodovani.xlsx
+++ b/kodovani/OE_podklad-kodovani.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ffuk-my.sharepoint.com/personal/simamartin_ff_cuni_cz/Documents/Nepití/Nepiti/kodovani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B2C170AC-5F1F-6C42-A8D7-520AD1B9F89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FCE0CD2-0FC3-4C89-9949-4CFA21C37A16}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{B2C170AC-5F1F-6C42-A8D7-520AD1B9F89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{764D5D80-C12D-469F-B30F-473EC8269720}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OE all" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7017" uniqueCount="2127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7033" uniqueCount="2144">
   <si>
     <t>napil jsem se</t>
   </si>
@@ -6427,6 +6427,57 @@
   </si>
   <si>
     <t>Kod 2</t>
+  </si>
+  <si>
+    <t>Lidi, kteří uvedli, že neplánují abstinenci (ani kratší než 3 týdny)</t>
+  </si>
+  <si>
+    <t>1. kod</t>
+  </si>
+  <si>
+    <t>2. kod</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plánovanou abstinenci berou jako věc pro někoho, kdo pije více </t>
+  </si>
+  <si>
+    <t>Nechci/nepotřebuji/není to nutné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bez dalšího vysvětlení </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jsem abstinent/nepiji </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstinuji spontánně/neplnánovaně </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O abstinenci obecně </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spokojenost s pitím </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pochybnosti o schopnosti abstinovat </t>
+  </si>
+  <si>
+    <t>Nechci se omezovat v příležitostném pití</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tady se asi myslelo maximálně? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asi zvyk s pitím? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">?? Dík za nic </t>
   </si>
 </sst>
 </file>
@@ -6642,6 +6693,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23945,42 +24000,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD39995-85B0-3D49-B092-303D496D14F0}">
-  <dimension ref="A1:M318"/>
+  <dimension ref="A1:N322"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2116</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
       <c r="B4">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f>COUNTIF(L22:L322,B4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2117</v>
       </c>
@@ -23990,547 +24060,699 @@
       <c r="C5" t="s">
         <v>2118</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>COUNTIF(L22:L323,B5)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2119</v>
       </c>
       <c r="B6">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D6">
+        <f>COUNTIF(L22:L324,B6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>SUM(D4:D6)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>2120</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIF(L22:L327,B10)</f>
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <f>COUNTIF(M22:M322,B10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>2121</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11">
+        <f>COUNTIF(L22:L328,B11)</f>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f>COUNTIF(M22:M322,B11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2122</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIF(L22:L329,B12)</f>
+        <v>91</v>
+      </c>
+      <c r="E12">
+        <f>COUNTIF(M22:M322,B12)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIF(L22:L330,B13)</f>
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <f>COUNTIF(M22:M322,B13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIF(L22:L331,B14)</f>
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <f>COUNTIF(M22:M322,B14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIF(L22:L332,B15)</f>
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f>COUNTIF(M22:M322,B15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
         <v>2123</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2124</v>
-      </c>
-      <c r="B12">
+      <c r="D16">
+        <f>COUNTIF(L22:L333,B16)</f>
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <f>COUNTIF(M22:M322,B16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIF(L22:L333,B17)</f>
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <f>COUNTIF(M22:M322,B17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIF(L22:L334,B18)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J17" s="1" t="s">
+      <c r="E18">
+        <f>COUNTIF(M22:M322,B18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIF(L22:L334,B19)</f>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f>COUNTIF(M22:M322,B19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <f>COUNTIF(L22:L334,B20)</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>COUNTIF(M22:M322,B20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L21" s="22" t="s">
         <v>2125</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M21" s="22" t="s">
         <v>2126</v>
       </c>
     </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>SUM(D4:D6, D10:D20)</f>
+        <v>295</v>
+      </c>
+      <c r="E22">
+        <f>SUM(E10:E20)</f>
+        <v>24</v>
+      </c>
+      <c r="J22">
         <v>21775089</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K22" t="s">
         <v>67</v>
       </c>
-      <c r="L18">
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="M18">
+      <c r="M22">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J23">
         <v>21777936</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K23" t="s">
         <v>82</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20">
-        <v>21781302</v>
-      </c>
-      <c r="K20" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J21">
-        <v>21781778</v>
-      </c>
-      <c r="K21" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J22">
-        <v>21782133</v>
-      </c>
-      <c r="K22" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J23">
-        <v>21782242</v>
-      </c>
-      <c r="K23" t="s">
-        <v>126</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J24">
+        <v>21781302</v>
+      </c>
+      <c r="K24" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>21781778</v>
+      </c>
+      <c r="K25" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>21782133</v>
+      </c>
+      <c r="K26" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>21782242</v>
+      </c>
+      <c r="K27" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J28">
         <v>21782278</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K28" t="s">
         <v>76</v>
       </c>
-      <c r="L24">
+      <c r="L28">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J29">
         <v>21782304</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K29" t="s">
         <v>144</v>
       </c>
-      <c r="L25">
+      <c r="L29">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J26">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J30">
         <v>21782314</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K30" t="s">
         <v>146</v>
-      </c>
-      <c r="L26">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J27">
-        <v>21782401</v>
-      </c>
-      <c r="K27" t="s">
-        <v>159</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J28">
-        <v>21782484</v>
-      </c>
-      <c r="K28" t="s">
-        <v>170</v>
-      </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J29">
-        <v>21782514</v>
-      </c>
-      <c r="K29" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J30">
-        <v>21782535</v>
-      </c>
-      <c r="K30" t="s">
-        <v>176</v>
       </c>
       <c r="L30">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J31">
+        <v>21782401</v>
+      </c>
+      <c r="K31" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>21782484</v>
+      </c>
+      <c r="K32" t="s">
+        <v>170</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>21782514</v>
+      </c>
+      <c r="K33" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>21782535</v>
+      </c>
+      <c r="K34" t="s">
+        <v>176</v>
+      </c>
+      <c r="L34">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J35">
         <v>21782541</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K35" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="32" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J32">
+      <c r="L35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J36">
         <v>21782594</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K36" t="s">
         <v>176</v>
-      </c>
-      <c r="L32">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J33">
-        <v>21782602</v>
-      </c>
-      <c r="K33" t="s">
-        <v>185</v>
-      </c>
-      <c r="L33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J34">
-        <v>21782804</v>
-      </c>
-      <c r="K34" t="s">
-        <v>195</v>
-      </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J35">
-        <v>21782814</v>
-      </c>
-      <c r="K35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J36">
-        <v>21782898</v>
-      </c>
-      <c r="K36" t="s">
-        <v>200</v>
       </c>
       <c r="L36">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J37">
-        <v>21783100</v>
+        <v>21782602</v>
       </c>
       <c r="K37" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="L37">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J38">
-        <v>21783162</v>
+        <v>21782804</v>
       </c>
       <c r="K38" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="L38">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="10:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J39">
-        <v>21783766</v>
+        <v>21782814</v>
       </c>
       <c r="K39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="10:12" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J40">
-        <v>21783825</v>
+        <v>21782898</v>
       </c>
       <c r="K40" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="L40">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J41">
-        <v>21783874</v>
+        <v>21783100</v>
       </c>
       <c r="K41" t="s">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="L41">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J42">
-        <v>21784107</v>
+        <v>21783162</v>
       </c>
       <c r="K42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L42">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="10:12" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J43">
-        <v>21785878</v>
+        <v>21783766</v>
       </c>
       <c r="K43" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="10:12" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J44">
-        <v>21786348</v>
+        <v>21783825</v>
       </c>
       <c r="K44" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="10:12" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="L44">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J45">
-        <v>21786700</v>
+        <v>21783874</v>
       </c>
       <c r="K45" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="L45">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J46">
-        <v>21787727</v>
+        <v>21784107</v>
       </c>
       <c r="K46" t="s">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="L46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="10:12" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J47">
-        <v>21787776</v>
+        <v>21785878</v>
       </c>
       <c r="K47" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="L47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="10:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J48">
-        <v>21787802</v>
+        <v>21786348</v>
       </c>
       <c r="K48" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="L48">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J49">
-        <v>21787811</v>
+        <v>21786700</v>
       </c>
       <c r="K49" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J50">
-        <v>21787928</v>
+        <v>21787727</v>
       </c>
       <c r="K50" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J51">
-        <v>21788129</v>
+        <v>21787776</v>
       </c>
       <c r="K51" t="s">
-        <v>298</v>
+        <v>268</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J52">
-        <v>21788343</v>
+        <v>21787802</v>
       </c>
       <c r="K52" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="L52">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J53">
-        <v>21788350</v>
+        <v>21787811</v>
       </c>
       <c r="K53" t="s">
-        <v>317</v>
+        <v>273</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J54">
-        <v>21788391</v>
+        <v>21787928</v>
       </c>
       <c r="K54" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="L54">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J55">
-        <v>21787877</v>
+        <v>21788129</v>
       </c>
       <c r="K55" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J56">
-        <v>21788462</v>
+        <v>21788343</v>
       </c>
       <c r="K56" t="s">
-        <v>329</v>
+        <v>15</v>
       </c>
       <c r="L56">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J57">
-        <v>21788627</v>
+        <v>21788350</v>
       </c>
       <c r="K57" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J58">
-        <v>21788678</v>
+        <v>21788391</v>
       </c>
       <c r="K58" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J59">
-        <v>21788863</v>
+        <v>21787877</v>
       </c>
       <c r="K59" t="s">
-        <v>176</v>
+        <v>325</v>
       </c>
       <c r="L59">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J60">
-        <v>21788965</v>
+        <v>21788462</v>
       </c>
       <c r="K60" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J61">
-        <v>21788974</v>
+        <v>21788627</v>
       </c>
       <c r="K61" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J62">
-        <v>21789000</v>
+        <v>21788678</v>
       </c>
       <c r="K62" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="L62">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J63">
-        <v>21789164</v>
+        <v>21788863</v>
       </c>
       <c r="K63" t="s">
-        <v>367</v>
+        <v>176</v>
       </c>
       <c r="L63">
         <v>99</v>
@@ -24538,1530 +24760,1674 @@
     </row>
     <row r="64" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J64">
+        <v>21788965</v>
+      </c>
+      <c r="K64" t="s">
+        <v>352</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>21788974</v>
+      </c>
+      <c r="K65" t="s">
+        <v>357</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>21789000</v>
+      </c>
+      <c r="K66" t="s">
+        <v>320</v>
+      </c>
+      <c r="L66">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>21789164</v>
+      </c>
+      <c r="K67" t="s">
+        <v>367</v>
+      </c>
+      <c r="L67">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J68">
         <v>21789311</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K68" t="s">
         <v>378</v>
       </c>
-      <c r="L64">
+      <c r="L68">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J65">
+    <row r="69" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J69">
         <v>21789387</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K69" t="s">
         <v>379</v>
       </c>
-      <c r="L65">
+      <c r="L69">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J66">
+    <row r="70" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J70">
         <v>21789431</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K70" t="s">
         <v>383</v>
-      </c>
-      <c r="L66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J67">
-        <v>21789458</v>
-      </c>
-      <c r="K67" t="s">
-        <v>384</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J68">
-        <v>21789575</v>
-      </c>
-      <c r="K68" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="69" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J69">
-        <v>21789717</v>
-      </c>
-      <c r="K69" t="s">
-        <v>320</v>
-      </c>
-      <c r="L69">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J70">
-        <v>21789855</v>
-      </c>
-      <c r="K70" t="s">
-        <v>402</v>
       </c>
       <c r="L70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J71">
+        <v>21789458</v>
+      </c>
+      <c r="K71" t="s">
+        <v>384</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>21789575</v>
+      </c>
+      <c r="K72" t="s">
+        <v>391</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>21789717</v>
+      </c>
+      <c r="K73" t="s">
+        <v>320</v>
+      </c>
+      <c r="L73">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>21789855</v>
+      </c>
+      <c r="K74" t="s">
+        <v>402</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J75">
         <v>21790761</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K75" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="72" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J72">
+      <c r="L75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J76">
         <v>21792356</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K76" t="s">
         <v>76</v>
-      </c>
-      <c r="L72">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J73">
-        <v>21792613</v>
-      </c>
-      <c r="K73" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="74" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J74">
-        <v>21792627</v>
-      </c>
-      <c r="K74" t="s">
-        <v>411</v>
-      </c>
-      <c r="L74">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J75">
-        <v>21792656</v>
-      </c>
-      <c r="K75" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="76" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J76">
-        <v>21792672</v>
-      </c>
-      <c r="K76" t="s">
-        <v>111</v>
       </c>
       <c r="L76">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J77">
+        <v>21792613</v>
+      </c>
+      <c r="K77" t="s">
+        <v>410</v>
+      </c>
+      <c r="L77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>21792627</v>
+      </c>
+      <c r="K78" t="s">
+        <v>411</v>
+      </c>
+      <c r="L78">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>21792656</v>
+      </c>
+      <c r="K79" t="s">
+        <v>415</v>
+      </c>
+      <c r="L79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>21792672</v>
+      </c>
+      <c r="K80" t="s">
+        <v>111</v>
+      </c>
+      <c r="L80">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J81">
         <v>21792675</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K81" t="s">
         <v>81</v>
       </c>
-      <c r="L77">
+      <c r="L81">
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J78">
+    <row r="82" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J82">
         <v>21792684</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K82" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="79" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J79">
+      <c r="L82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J83">
         <v>21792729</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K83" t="s">
         <v>436</v>
-      </c>
-      <c r="L79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J80">
-        <v>21792742</v>
-      </c>
-      <c r="K80" t="s">
-        <v>439</v>
-      </c>
-      <c r="L80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J81">
-        <v>21792767</v>
-      </c>
-      <c r="K81" t="s">
-        <v>444</v>
-      </c>
-      <c r="L81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J82">
-        <v>21792769</v>
-      </c>
-      <c r="K82" t="s">
-        <v>58</v>
-      </c>
-      <c r="L82">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J83">
-        <v>21792768</v>
-      </c>
-      <c r="K83" t="s">
-        <v>445</v>
       </c>
       <c r="L83">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J84">
-        <v>21792790</v>
+        <v>21792742</v>
       </c>
       <c r="K84" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="L84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J85">
+        <v>21792767</v>
+      </c>
+      <c r="K85" t="s">
+        <v>444</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>21792769</v>
+      </c>
+      <c r="K86" t="s">
+        <v>58</v>
+      </c>
+      <c r="L86">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>21792768</v>
+      </c>
+      <c r="K87" t="s">
+        <v>445</v>
+      </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>21792790</v>
+      </c>
+      <c r="K88" t="s">
+        <v>455</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J89">
         <v>21792798</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K89" t="s">
         <v>456</v>
-      </c>
-      <c r="L85">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J86">
-        <v>21792821</v>
-      </c>
-      <c r="K86" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="87" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J87">
-        <v>21792825</v>
-      </c>
-      <c r="K87" t="s">
-        <v>329</v>
-      </c>
-      <c r="L87">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J88">
-        <v>21792836</v>
-      </c>
-      <c r="K88" t="s">
-        <v>320</v>
-      </c>
-      <c r="L88">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J89">
-        <v>21792850</v>
-      </c>
-      <c r="K89" t="s">
-        <v>351</v>
       </c>
       <c r="L89">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J90">
-        <v>21792864</v>
+        <v>21792821</v>
       </c>
       <c r="K90" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="91" spans="10:12" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J91">
-        <v>21792868</v>
+        <v>21792825</v>
       </c>
       <c r="K91" t="s">
-        <v>475</v>
+        <v>329</v>
       </c>
       <c r="L91">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J92">
+        <v>21792836</v>
+      </c>
+      <c r="K92" t="s">
+        <v>320</v>
+      </c>
+      <c r="L92">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>21792850</v>
+      </c>
+      <c r="K93" t="s">
+        <v>351</v>
+      </c>
+      <c r="L93">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>21792864</v>
+      </c>
+      <c r="K94" t="s">
+        <v>468</v>
+      </c>
+      <c r="L94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>21792868</v>
+      </c>
+      <c r="K95" t="s">
+        <v>475</v>
+      </c>
+      <c r="L95">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J96">
         <v>21792897</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K96" t="s">
         <v>348</v>
       </c>
-      <c r="L92">
+      <c r="L96">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J93">
+    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J97">
         <v>21792912</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K97" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="94" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J94">
+      <c r="L97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J98">
         <v>21792914</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K98" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="95" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J95">
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J99">
         <v>21792924</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K99" t="s">
         <v>81</v>
       </c>
-      <c r="L95">
+      <c r="L99">
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J96">
+    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J100">
         <v>21792940</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K100" t="s">
         <v>502</v>
       </c>
-      <c r="L96">
+      <c r="L100">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J97">
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J101">
         <v>21792941</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K101" t="s">
         <v>320</v>
       </c>
-      <c r="L97">
+      <c r="L101">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J98">
+    <row r="102" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J102">
         <v>21792955</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K102" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="99" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J99">
+      <c r="N102" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="103" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J103">
         <v>21792974</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K103" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="100" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J100">
+      <c r="L103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J104">
         <v>21792988</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K104" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="101" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J101">
+      <c r="L104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J105">
         <v>21793012</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K105" t="s">
         <v>523</v>
       </c>
-      <c r="L101">
+      <c r="L105">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J102">
+    <row r="106" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J106">
         <v>21793106</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K106" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="103" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J103">
+      <c r="L106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J107">
         <v>21793118</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K107" t="s">
         <v>538</v>
-      </c>
-      <c r="L103">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J104">
-        <v>21793165</v>
-      </c>
-      <c r="K104" t="s">
-        <v>548</v>
-      </c>
-      <c r="L104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J105">
-        <v>21793204</v>
-      </c>
-      <c r="K105" t="s">
-        <v>553</v>
-      </c>
-      <c r="L105">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J106">
-        <v>21793306</v>
-      </c>
-      <c r="K106" t="s">
-        <v>570</v>
-      </c>
-      <c r="L106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J107">
-        <v>21793337</v>
-      </c>
-      <c r="K107" t="s">
-        <v>574</v>
       </c>
       <c r="L107">
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J108">
+        <v>21793165</v>
+      </c>
+      <c r="K108" t="s">
+        <v>548</v>
+      </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>21793204</v>
+      </c>
+      <c r="K109" t="s">
+        <v>553</v>
+      </c>
+      <c r="L109">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>21793306</v>
+      </c>
+      <c r="K110" t="s">
+        <v>570</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>21793337</v>
+      </c>
+      <c r="K111" t="s">
+        <v>574</v>
+      </c>
+      <c r="L111">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J112">
         <v>21793383</v>
       </c>
-      <c r="K108" t="s">
+      <c r="K112" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="109" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J109">
+      <c r="L112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J113">
         <v>21793393</v>
       </c>
-      <c r="K109" t="s">
+      <c r="K113" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="110" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J110">
+    <row r="114" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J114">
         <v>21793403</v>
       </c>
-      <c r="K110" t="s">
+      <c r="K114" t="s">
         <v>588</v>
       </c>
-      <c r="L110">
+      <c r="L114">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J111">
+    <row r="115" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J115">
         <v>21793422</v>
       </c>
-      <c r="K111" t="s">
+      <c r="K115" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="112" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J112">
+      <c r="L115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J116">
         <v>21793448</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K116" t="s">
         <v>592</v>
-      </c>
-      <c r="L112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J113">
-        <v>21793522</v>
-      </c>
-      <c r="K113" t="s">
-        <v>603</v>
-      </c>
-      <c r="L113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J114">
-        <v>21793587</v>
-      </c>
-      <c r="K114" t="s">
-        <v>614</v>
-      </c>
-      <c r="L114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J115">
-        <v>21793596</v>
-      </c>
-      <c r="K115" t="s">
-        <v>620</v>
-      </c>
-      <c r="L115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J116">
-        <v>21793613</v>
-      </c>
-      <c r="K116" t="s">
-        <v>627</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J117">
-        <v>21793618</v>
+        <v>21793522</v>
       </c>
       <c r="K117" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="118" spans="10:12" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="L117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J118">
-        <v>21793628</v>
+        <v>21793587</v>
       </c>
       <c r="K118" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="L118">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="10:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J119">
-        <v>21793746</v>
+        <v>21793596</v>
       </c>
       <c r="K119" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="L119">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J120">
+        <v>21793613</v>
+      </c>
+      <c r="K120" t="s">
+        <v>627</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <v>21793618</v>
+      </c>
+      <c r="K121" t="s">
+        <v>629</v>
+      </c>
+      <c r="L121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <v>21793628</v>
+      </c>
+      <c r="K122" t="s">
+        <v>630</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <v>21793746</v>
+      </c>
+      <c r="K123" t="s">
+        <v>656</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J124">
         <v>21793800</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K124" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="121" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J121">
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="N124" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="125" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J125">
         <v>21793806</v>
       </c>
-      <c r="K121" t="s">
+      <c r="K125" t="s">
         <v>665</v>
-      </c>
-      <c r="L121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J122">
-        <v>21793837</v>
-      </c>
-      <c r="K122" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="123" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J123">
-        <v>21793852</v>
-      </c>
-      <c r="K123" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="124" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J124">
-        <v>21793920</v>
-      </c>
-      <c r="K124" t="s">
-        <v>680</v>
-      </c>
-      <c r="L124">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="125" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J125">
-        <v>21793925</v>
-      </c>
-      <c r="K125" t="s">
-        <v>681</v>
       </c>
       <c r="L125">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J126">
+        <v>21793837</v>
+      </c>
+      <c r="K126" t="s">
+        <v>674</v>
+      </c>
+      <c r="L126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <v>21793852</v>
+      </c>
+      <c r="K127" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="128" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>21793920</v>
+      </c>
+      <c r="K128" t="s">
+        <v>680</v>
+      </c>
+      <c r="L128">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <v>21793925</v>
+      </c>
+      <c r="K129" t="s">
+        <v>681</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J130">
         <v>21793941</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K130" t="s">
         <v>176</v>
       </c>
-      <c r="L126">
+      <c r="L130">
         <v>99</v>
       </c>
     </row>
-    <row r="127" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J127">
+    <row r="131" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J131">
         <v>21793955</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K131" t="s">
         <v>691</v>
       </c>
-      <c r="L127">
+      <c r="L131">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J128">
+    <row r="132" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J132">
         <v>21794005</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K132" t="s">
         <v>697</v>
-      </c>
-      <c r="L128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J129">
-        <v>21794015</v>
-      </c>
-      <c r="K129" t="s">
-        <v>176</v>
-      </c>
-      <c r="L129">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J130">
-        <v>21794026</v>
-      </c>
-      <c r="K130" t="s">
-        <v>707</v>
-      </c>
-      <c r="L130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J131">
-        <v>21794112</v>
-      </c>
-      <c r="K131" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="132" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J132">
-        <v>21794125</v>
-      </c>
-      <c r="K132" t="s">
-        <v>730</v>
       </c>
       <c r="L132">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J133">
+        <v>21794015</v>
+      </c>
+      <c r="K133" t="s">
+        <v>176</v>
+      </c>
+      <c r="L133">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <v>21794026</v>
+      </c>
+      <c r="K134" t="s">
+        <v>707</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J135">
+        <v>21794112</v>
+      </c>
+      <c r="K135" t="s">
+        <v>724</v>
+      </c>
+      <c r="L135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <v>21794125</v>
+      </c>
+      <c r="K136" t="s">
+        <v>730</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J137">
         <v>21794132</v>
       </c>
-      <c r="K133" t="s">
+      <c r="K137" t="s">
         <v>734</v>
       </c>
-      <c r="L133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J134">
+      <c r="L137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J138">
         <v>21794139</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K138" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="135" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J135">
+      <c r="L138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J139">
         <v>21794161</v>
       </c>
-      <c r="K135" t="s">
+      <c r="K139" t="s">
         <v>740</v>
       </c>
-      <c r="L135">
+      <c r="L139">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J136">
+    <row r="140" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J140">
         <v>21794199</v>
       </c>
-      <c r="K136" t="s">
+      <c r="K140" t="s">
         <v>744</v>
       </c>
-      <c r="L136">
+      <c r="L140">
         <v>99</v>
       </c>
     </row>
-    <row r="137" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J137">
+    <row r="141" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J141">
         <v>21794203</v>
       </c>
-      <c r="K137" t="s">
+      <c r="K141" t="s">
         <v>745</v>
       </c>
-      <c r="L137">
+      <c r="L141">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J138">
+      <c r="M141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J142">
         <v>21794205</v>
       </c>
-      <c r="K138" t="s">
+      <c r="K142" t="s">
         <v>329</v>
       </c>
-      <c r="L138">
+      <c r="L142">
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J139">
+    <row r="143" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J143">
         <v>21794207</v>
       </c>
-      <c r="K139" t="s">
+      <c r="K143" t="s">
         <v>176</v>
       </c>
-      <c r="L139">
+      <c r="L143">
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J140">
+    <row r="144" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J144">
         <v>21794250</v>
       </c>
-      <c r="K140" t="s">
+      <c r="K144" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="141" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J141">
+      <c r="L144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J145">
         <v>21794257</v>
       </c>
-      <c r="K141" t="s">
+      <c r="K145" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="142" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J142">
+      <c r="L145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J146">
         <v>21794315</v>
       </c>
-      <c r="K142" t="s">
+      <c r="K146" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="143" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J143">
+      <c r="L146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J147">
         <v>21794347</v>
       </c>
-      <c r="K143" t="s">
+      <c r="K147" t="s">
         <v>777</v>
       </c>
-      <c r="L143">
+      <c r="L147">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J144">
+    <row r="148" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J148">
         <v>21794354</v>
       </c>
-      <c r="K144" t="s">
+      <c r="K148" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="145" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J145">
+      <c r="L148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J149">
         <v>21794386</v>
       </c>
-      <c r="K145" t="s">
+      <c r="K149" t="s">
         <v>796</v>
-      </c>
-      <c r="L145">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J146">
-        <v>21794451</v>
-      </c>
-      <c r="K146" t="s">
-        <v>802</v>
-      </c>
-      <c r="L146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J147">
-        <v>21794474</v>
-      </c>
-      <c r="K147" t="s">
-        <v>805</v>
-      </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J148">
-        <v>21794487</v>
-      </c>
-      <c r="K148" t="s">
-        <v>176</v>
-      </c>
-      <c r="L148">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="149" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J149">
-        <v>21794500</v>
-      </c>
-      <c r="K149" t="s">
-        <v>730</v>
       </c>
       <c r="L149">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J150">
-        <v>21794531</v>
+        <v>21794451</v>
       </c>
       <c r="K150" t="s">
-        <v>121</v>
+        <v>802</v>
       </c>
       <c r="L150">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="151" spans="10:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="M150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J151">
-        <v>21794586</v>
+        <v>21794474</v>
       </c>
       <c r="K151" t="s">
-        <v>76</v>
+        <v>805</v>
       </c>
       <c r="L151">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="152" spans="10:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J152">
-        <v>21794598</v>
+        <v>21794487</v>
       </c>
       <c r="K152" t="s">
-        <v>820</v>
+        <v>176</v>
       </c>
       <c r="L152">
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J153">
-        <v>21794710</v>
+        <v>21794500</v>
       </c>
       <c r="K153" t="s">
-        <v>829</v>
+        <v>730</v>
       </c>
       <c r="L153">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J154">
+        <v>21794531</v>
+      </c>
+      <c r="K154" t="s">
+        <v>121</v>
+      </c>
+      <c r="L154">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J155">
+        <v>21794586</v>
+      </c>
+      <c r="K155" t="s">
+        <v>76</v>
+      </c>
+      <c r="L155">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J156">
+        <v>21794598</v>
+      </c>
+      <c r="K156" t="s">
+        <v>820</v>
+      </c>
+      <c r="L156">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="157" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J157">
+        <v>21794710</v>
+      </c>
+      <c r="K157" t="s">
+        <v>829</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J158">
         <v>21794711</v>
       </c>
-      <c r="K154" t="s">
+      <c r="K158" t="s">
         <v>832</v>
       </c>
-      <c r="L154">
+      <c r="L158">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J155">
+    <row r="159" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J159">
         <v>21794753</v>
       </c>
-      <c r="K155" t="s">
+      <c r="K159" t="s">
         <v>834</v>
       </c>
-      <c r="L155">
+      <c r="L159">
+        <v>7</v>
+      </c>
+      <c r="M159">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J156">
+    <row r="160" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J160">
         <v>21794851</v>
       </c>
-      <c r="K156" t="s">
+      <c r="K160" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="157" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J157">
+      <c r="L160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J161">
         <v>21794883</v>
       </c>
-      <c r="K157" t="s">
+      <c r="K161" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="158" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J158">
+      <c r="L161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J162">
         <v>21794885</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K162" t="s">
         <v>846</v>
       </c>
-      <c r="L158">
+      <c r="L162">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J159">
+    <row r="163" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J163">
         <v>21794963</v>
       </c>
-      <c r="K159" t="s">
+      <c r="K163" t="s">
         <v>58</v>
       </c>
-      <c r="L159">
+      <c r="L163">
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J160">
+    <row r="164" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J164">
         <v>21795165</v>
       </c>
-      <c r="K160" t="s">
+      <c r="K164" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="161" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J161">
+      <c r="L164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J165">
         <v>21795257</v>
       </c>
-      <c r="K161" t="s">
+      <c r="K165" t="s">
         <v>58</v>
       </c>
-      <c r="L161">
+      <c r="L165">
         <v>99</v>
       </c>
     </row>
-    <row r="162" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J162">
+    <row r="166" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J166">
         <v>21795339</v>
       </c>
-      <c r="K162" t="s">
+      <c r="K166" t="s">
         <v>914</v>
       </c>
-      <c r="L162">
+      <c r="L166">
         <v>99</v>
       </c>
     </row>
-    <row r="163" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J163">
+    <row r="167" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J167">
         <v>21795372</v>
       </c>
-      <c r="K163" t="s">
+      <c r="K167" t="s">
         <v>918</v>
       </c>
-      <c r="L163">
+      <c r="L167">
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J164">
+    <row r="168" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J168">
         <v>21795403</v>
       </c>
-      <c r="K164" t="s">
+      <c r="K168" t="s">
         <v>922</v>
-      </c>
-      <c r="L164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J165">
-        <v>21795458</v>
-      </c>
-      <c r="K165" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="166" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J166">
-        <v>21795722</v>
-      </c>
-      <c r="K166" t="s">
-        <v>933</v>
-      </c>
-      <c r="L166">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J167">
-        <v>21796383</v>
-      </c>
-      <c r="K167" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="168" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J168">
-        <v>21797972</v>
-      </c>
-      <c r="K168" t="s">
-        <v>966</v>
       </c>
       <c r="L168">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J169">
-        <v>21798040</v>
+        <v>21795458</v>
       </c>
       <c r="K169" t="s">
-        <v>972</v>
+        <v>196</v>
       </c>
       <c r="L169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="10:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J170">
-        <v>21798343</v>
+        <v>21795722</v>
       </c>
       <c r="K170" t="s">
-        <v>57</v>
+        <v>933</v>
       </c>
       <c r="L170">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="171" spans="10:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J171">
-        <v>21798351</v>
+        <v>21796383</v>
       </c>
       <c r="K171" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="172" spans="10:12" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="N171" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="172" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J172">
-        <v>21798604</v>
+        <v>21797972</v>
       </c>
       <c r="K172" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="L172">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J173">
+        <v>21798040</v>
+      </c>
+      <c r="K173" t="s">
+        <v>972</v>
+      </c>
+      <c r="L173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J174">
+        <v>21798343</v>
+      </c>
+      <c r="K174" t="s">
+        <v>57</v>
+      </c>
+      <c r="L174">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="175" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J175">
+        <v>21798351</v>
+      </c>
+      <c r="K175" t="s">
+        <v>982</v>
+      </c>
+      <c r="L175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J176">
+        <v>21798604</v>
+      </c>
+      <c r="K176" t="s">
+        <v>988</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J177">
         <v>21798630</v>
       </c>
-      <c r="K173" t="s">
+      <c r="K177" t="s">
         <v>992</v>
       </c>
-      <c r="L173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J174">
+      <c r="L177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J178">
         <v>21798636</v>
       </c>
-      <c r="K174" t="s">
+      <c r="K178" t="s">
         <v>1001</v>
-      </c>
-      <c r="L174">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J175">
-        <v>21798646</v>
-      </c>
-      <c r="K175" t="s">
-        <v>76</v>
-      </c>
-      <c r="L175">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="176" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J176">
-        <v>21798660</v>
-      </c>
-      <c r="K176" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="177" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J177">
-        <v>21798668</v>
-      </c>
-      <c r="K177" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L177">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J178">
-        <v>21798685</v>
-      </c>
-      <c r="K178" t="s">
-        <v>1023</v>
       </c>
       <c r="L178">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J179">
+        <v>21798646</v>
+      </c>
+      <c r="K179" t="s">
+        <v>76</v>
+      </c>
+      <c r="L179">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="180" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J180">
+        <v>21798660</v>
+      </c>
+      <c r="K180" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J181">
+        <v>21798668</v>
+      </c>
+      <c r="K181" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J182">
+        <v>21798685</v>
+      </c>
+      <c r="K182" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L182">
+        <v>3</v>
+      </c>
+      <c r="M182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J183">
         <v>21798687</v>
       </c>
-      <c r="K179" t="s">
+      <c r="K183" t="s">
         <v>81</v>
       </c>
-      <c r="L179">
+      <c r="L183">
         <v>98</v>
       </c>
     </row>
-    <row r="180" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J180">
+    <row r="184" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J184">
         <v>21798708</v>
       </c>
-      <c r="K180" t="s">
+      <c r="K184" t="s">
         <v>1050</v>
       </c>
-      <c r="L180">
+      <c r="L184">
         <v>99</v>
       </c>
     </row>
-    <row r="181" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J181">
+    <row r="185" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J185">
         <v>21798709</v>
       </c>
-      <c r="K181" t="s">
+      <c r="K185" t="s">
         <v>1053</v>
       </c>
-      <c r="L181">
+      <c r="L185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J186">
+        <v>21798726</v>
+      </c>
+      <c r="K186" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J187">
+        <v>21798732</v>
+      </c>
+      <c r="K187" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L187">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J182">
-        <v>21798726</v>
-      </c>
-      <c r="K182" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="183" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J183">
-        <v>21798732</v>
-      </c>
-      <c r="K183" t="s">
-        <v>1069</v>
-      </c>
-      <c r="L183">
+    <row r="188" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J188">
+        <v>21798739</v>
+      </c>
+      <c r="K188" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L188">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J184">
-        <v>21798739</v>
-      </c>
-      <c r="K184" t="s">
-        <v>1076</v>
-      </c>
-      <c r="L184">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J185">
+    <row r="189" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J189">
         <v>21798746</v>
       </c>
-      <c r="K185" t="s">
+      <c r="K189" t="s">
         <v>1077</v>
-      </c>
-      <c r="L185">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J186">
-        <v>21798749</v>
-      </c>
-      <c r="K186" t="s">
-        <v>1083</v>
-      </c>
-      <c r="L186">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="187" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J187">
-        <v>21798757</v>
-      </c>
-      <c r="K187" t="s">
-        <v>1087</v>
-      </c>
-      <c r="L187">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J188">
-        <v>21798748</v>
-      </c>
-      <c r="K188" t="s">
-        <v>176</v>
-      </c>
-      <c r="L188">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="189" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J189">
-        <v>21798760</v>
-      </c>
-      <c r="K189" t="s">
-        <v>1091</v>
       </c>
       <c r="L189">
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J190">
-        <v>21798768</v>
+        <v>21798749</v>
       </c>
       <c r="K190" t="s">
-        <v>1099</v>
+        <v>1083</v>
       </c>
       <c r="L190">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="10:12" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="191" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J191">
-        <v>21798779</v>
+        <v>21798757</v>
       </c>
       <c r="K191" t="s">
-        <v>76</v>
+        <v>1087</v>
       </c>
       <c r="L191">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="192" spans="10:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J192">
-        <v>21798795</v>
+        <v>21798748</v>
       </c>
       <c r="K192" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="L192">
         <v>99</v>
       </c>
     </row>
-    <row r="193" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J193">
-        <v>21798803</v>
+        <v>21798760</v>
       </c>
       <c r="K193" t="s">
-        <v>76</v>
+        <v>1091</v>
       </c>
       <c r="L193">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="194" spans="10:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J194">
-        <v>21798817</v>
+        <v>21798768</v>
       </c>
       <c r="K194" t="s">
-        <v>1118</v>
+        <v>1099</v>
       </c>
       <c r="L194">
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J195">
-        <v>21798856</v>
+        <v>21798779</v>
       </c>
       <c r="K195" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="L195">
         <v>99</v>
       </c>
     </row>
-    <row r="196" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J196">
-        <v>21798874</v>
+        <v>21798795</v>
       </c>
       <c r="K196" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="197" spans="10:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="L196">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="197" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J197">
-        <v>21798900</v>
+        <v>21798803</v>
       </c>
       <c r="K197" t="s">
-        <v>1158</v>
+        <v>76</v>
       </c>
       <c r="L197">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="198" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J198">
+        <v>21798817</v>
+      </c>
+      <c r="K198" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L198">
+        <v>7</v>
+      </c>
+      <c r="M198">
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J198">
-        <v>21798911</v>
-      </c>
-      <c r="K198" t="s">
-        <v>1159</v>
-      </c>
-      <c r="L198">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J199">
-        <v>21798913</v>
+        <v>21798856</v>
       </c>
       <c r="K199" t="s">
-        <v>320</v>
+        <v>176</v>
       </c>
       <c r="L199">
         <v>99</v>
       </c>
     </row>
-    <row r="200" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J200">
-        <v>21798938</v>
+        <v>21798874</v>
       </c>
       <c r="K200" t="s">
-        <v>1171</v>
+        <v>1148</v>
       </c>
       <c r="L200">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="10:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J201">
-        <v>21798976</v>
+        <v>21798900</v>
       </c>
       <c r="K201" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
       <c r="L201">
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J202">
+        <v>21798911</v>
+      </c>
+      <c r="K202" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J203">
+        <v>21798913</v>
+      </c>
+      <c r="K203" t="s">
+        <v>320</v>
+      </c>
+      <c r="L203">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="204" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J204">
+        <v>21798938</v>
+      </c>
+      <c r="K204" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J205">
+        <v>21798976</v>
+      </c>
+      <c r="K205" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L205">
+        <v>7</v>
+      </c>
+      <c r="M205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J206">
         <v>21798995</v>
       </c>
-      <c r="K202" t="s">
+      <c r="K206" t="s">
         <v>176</v>
       </c>
-      <c r="L202">
+      <c r="L206">
         <v>99</v>
       </c>
     </row>
-    <row r="203" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J203">
+    <row r="207" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J207">
         <v>21799046</v>
       </c>
-      <c r="K203" t="s">
+      <c r="K207" t="s">
         <v>1199</v>
       </c>
-      <c r="L203">
+      <c r="L207">
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J204">
+    <row r="208" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J208">
         <v>21799043</v>
       </c>
-      <c r="K204" t="s">
+      <c r="K208" t="s">
         <v>1201</v>
       </c>
-      <c r="L204">
+      <c r="L208">
         <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J205">
-        <v>21799132</v>
-      </c>
-      <c r="K205" t="s">
-        <v>1238</v>
-      </c>
-      <c r="L205">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J206">
-        <v>21799180</v>
-      </c>
-      <c r="K206" t="s">
-        <v>1251</v>
-      </c>
-      <c r="L206">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J207">
-        <v>21799184</v>
-      </c>
-      <c r="K207" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="208" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J208">
-        <v>21799225</v>
-      </c>
-      <c r="K208" t="s">
-        <v>1259</v>
-      </c>
-      <c r="L208">
-        <v>3</v>
       </c>
     </row>
     <row r="209" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J209">
-        <v>21799233</v>
+        <v>21799132</v>
       </c>
       <c r="K209" t="s">
-        <v>329</v>
+        <v>1238</v>
       </c>
       <c r="L209">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J210">
-        <v>21800922</v>
+        <v>21799180</v>
       </c>
       <c r="K210" t="s">
-        <v>1294</v>
+        <v>1251</v>
       </c>
       <c r="L210">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J211">
-        <v>21800920</v>
+        <v>21799184</v>
       </c>
       <c r="K211" t="s">
-        <v>1298</v>
+        <v>1252</v>
       </c>
       <c r="L211">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J212">
-        <v>21800984</v>
+        <v>21799225</v>
       </c>
       <c r="K212" t="s">
-        <v>1305</v>
+        <v>1259</v>
       </c>
       <c r="L212">
         <v>3</v>
@@ -26069,97 +26435,109 @@
     </row>
     <row r="213" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J213">
-        <v>21801027</v>
+        <v>21799233</v>
       </c>
       <c r="K213" t="s">
-        <v>1310</v>
+        <v>329</v>
+      </c>
+      <c r="L213">
+        <v>99</v>
       </c>
     </row>
     <row r="214" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J214">
-        <v>21801068</v>
+        <v>21800922</v>
       </c>
       <c r="K214" t="s">
-        <v>1313</v>
+        <v>1294</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J215">
-        <v>21802348</v>
+        <v>21800920</v>
       </c>
       <c r="K215" t="s">
-        <v>1329</v>
+        <v>1298</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J216">
-        <v>21802350</v>
+        <v>21800984</v>
       </c>
       <c r="K216" t="s">
-        <v>81</v>
+        <v>1305</v>
       </c>
       <c r="L216">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J217">
-        <v>21802353</v>
+        <v>21801027</v>
       </c>
       <c r="K217" t="s">
-        <v>1330</v>
+        <v>1310</v>
       </c>
       <c r="L217">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J218">
-        <v>21802638</v>
+        <v>21801068</v>
       </c>
       <c r="K218" t="s">
-        <v>1336</v>
+        <v>1313</v>
       </c>
       <c r="L218">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J219">
-        <v>21802649</v>
+        <v>21802348</v>
       </c>
       <c r="K219" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="L219">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J220">
-        <v>21802651</v>
+        <v>21802350</v>
       </c>
       <c r="K220" t="s">
-        <v>1343</v>
+        <v>81</v>
+      </c>
+      <c r="L220">
+        <v>98</v>
       </c>
     </row>
     <row r="221" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J221">
-        <v>21802662</v>
+        <v>21802353</v>
       </c>
       <c r="K221" t="s">
-        <v>1349</v>
+        <v>1330</v>
+      </c>
+      <c r="L221">
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J222">
-        <v>21802665</v>
+        <v>21802638</v>
       </c>
       <c r="K222" t="s">
-        <v>1352</v>
+        <v>1336</v>
       </c>
       <c r="L222">
         <v>3</v>
@@ -26167,37 +26545,43 @@
     </row>
     <row r="223" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J223">
-        <v>21803025</v>
+        <v>21802649</v>
       </c>
       <c r="K223" t="s">
-        <v>1356</v>
+        <v>1340</v>
+      </c>
+      <c r="L223">
+        <v>99</v>
       </c>
     </row>
     <row r="224" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J224">
-        <v>21804343</v>
+        <v>21802651</v>
       </c>
       <c r="K224" t="s">
-        <v>1368</v>
+        <v>1343</v>
+      </c>
+      <c r="L224">
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J225">
-        <v>21804348</v>
+        <v>21802662</v>
       </c>
       <c r="K225" t="s">
-        <v>351</v>
+        <v>1349</v>
       </c>
       <c r="L225">
-        <v>99</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J226">
-        <v>21804387</v>
+        <v>21802665</v>
       </c>
       <c r="K226" t="s">
-        <v>1371</v>
+        <v>1352</v>
       </c>
       <c r="L226">
         <v>3</v>
@@ -26205,108 +26589,117 @@
     </row>
     <row r="227" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J227">
-        <v>21804391</v>
+        <v>21803025</v>
       </c>
       <c r="K227" t="s">
-        <v>1375</v>
+        <v>1356</v>
+      </c>
+      <c r="L227">
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J228">
-        <v>21805409</v>
+        <v>21804343</v>
       </c>
       <c r="K228" t="s">
-        <v>1379</v>
-      </c>
-      <c r="L228">
-        <v>1</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="229" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J229">
-        <v>21805701</v>
+        <v>21804348</v>
       </c>
       <c r="K229" t="s">
-        <v>1380</v>
+        <v>351</v>
       </c>
       <c r="L229">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="230" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J230">
-        <v>21805733</v>
+        <v>21804387</v>
       </c>
       <c r="K230" t="s">
-        <v>1386</v>
+        <v>1371</v>
+      </c>
+      <c r="L230">
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J231">
-        <v>21805757</v>
+        <v>21804391</v>
       </c>
       <c r="K231" t="s">
-        <v>320</v>
+        <v>1375</v>
       </c>
       <c r="L231">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J232">
-        <v>21805792</v>
+        <v>21805409</v>
       </c>
       <c r="K232" t="s">
-        <v>1396</v>
+        <v>1379</v>
       </c>
       <c r="L232">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J233">
-        <v>21806806</v>
+        <v>21805701</v>
       </c>
       <c r="K233" t="s">
-        <v>1399</v>
+        <v>1380</v>
       </c>
       <c r="L233">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J234">
-        <v>21807083</v>
+        <v>21805733</v>
       </c>
       <c r="K234" t="s">
-        <v>1401</v>
+        <v>1386</v>
+      </c>
+      <c r="L234">
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J235">
-        <v>21807414</v>
+        <v>21805757</v>
       </c>
       <c r="K235" t="s">
-        <v>1406</v>
+        <v>320</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="236" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J236">
-        <v>21808500</v>
+        <v>21805792</v>
       </c>
       <c r="K236" t="s">
-        <v>1424</v>
+        <v>1396</v>
+      </c>
+      <c r="L236">
+        <v>99</v>
       </c>
     </row>
     <row r="237" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J237">
-        <v>21809948</v>
+        <v>21806806</v>
       </c>
       <c r="K237" t="s">
-        <v>1444</v>
+        <v>1399</v>
       </c>
       <c r="L237">
         <v>99</v>
@@ -26314,792 +26707,873 @@
     </row>
     <row r="238" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J238">
-        <v>21810123</v>
+        <v>21807083</v>
       </c>
       <c r="K238" t="s">
-        <v>1447</v>
+        <v>1401</v>
+      </c>
+      <c r="L238">
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J239">
-        <v>21810127</v>
+        <v>21807414</v>
       </c>
       <c r="K239" t="s">
-        <v>1448</v>
+        <v>1406</v>
+      </c>
+      <c r="L239">
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J240">
+        <v>21808500</v>
+      </c>
+      <c r="K240" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J241">
+        <v>21809948</v>
+      </c>
+      <c r="K241" t="s">
+        <v>1444</v>
+      </c>
+      <c r="L241">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="242" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J242">
+        <v>21810123</v>
+      </c>
+      <c r="K242" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J243">
+        <v>21810127</v>
+      </c>
+      <c r="K243" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L243">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J244">
         <v>21810905</v>
       </c>
-      <c r="K240" t="s">
+      <c r="K244" t="s">
         <v>1476</v>
       </c>
-      <c r="L240">
+      <c r="L244">
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J241">
+    <row r="245" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J245">
         <v>21810906</v>
       </c>
-      <c r="K241" t="s">
+      <c r="K245" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="242" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J242">
+      <c r="L245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J246">
         <v>21811246</v>
       </c>
-      <c r="K242" t="s">
+      <c r="K246" t="s">
         <v>81</v>
       </c>
-      <c r="L242">
+      <c r="L246">
         <v>98</v>
       </c>
     </row>
-    <row r="243" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J243">
+    <row r="247" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J247">
         <v>21811474</v>
       </c>
-      <c r="K243" t="s">
+      <c r="K247" t="s">
         <v>1480</v>
-      </c>
-      <c r="L243">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J244">
-        <v>21817067</v>
-      </c>
-      <c r="K244" t="s">
-        <v>58</v>
-      </c>
-      <c r="L244">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="245" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J245">
-        <v>21817312</v>
-      </c>
-      <c r="K245" t="s">
-        <v>1501</v>
-      </c>
-      <c r="L245">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J246">
-        <v>21819303</v>
-      </c>
-      <c r="K246" t="s">
-        <v>1506</v>
-      </c>
-      <c r="L246">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J247">
-        <v>21822225</v>
-      </c>
-      <c r="K247" t="s">
-        <v>1512</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J248">
-        <v>21822543</v>
+        <v>21817067</v>
       </c>
       <c r="K248" t="s">
-        <v>1516</v>
+        <v>58</v>
       </c>
       <c r="L248">
         <v>99</v>
       </c>
     </row>
-    <row r="249" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J249">
-        <v>21825330</v>
+        <v>21817312</v>
       </c>
       <c r="K249" t="s">
-        <v>1525</v>
+        <v>1501</v>
       </c>
       <c r="L249">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="10:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J250">
-        <v>21825345</v>
+        <v>21819303</v>
       </c>
       <c r="K250" t="s">
-        <v>1527</v>
+        <v>1506</v>
       </c>
       <c r="L250">
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J251">
+        <v>21822225</v>
+      </c>
+      <c r="K251" t="s">
+        <v>1512</v>
+      </c>
+      <c r="L251">
+        <v>7</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J252">
+        <v>21822543</v>
+      </c>
+      <c r="K252" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L252">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="253" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J253">
+        <v>21825330</v>
+      </c>
+      <c r="K253" t="s">
+        <v>1525</v>
+      </c>
+      <c r="L253">
+        <v>7</v>
+      </c>
+      <c r="M253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J254">
+        <v>21825345</v>
+      </c>
+      <c r="K254" t="s">
+        <v>1527</v>
+      </c>
+      <c r="L254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J255">
         <v>21825430</v>
       </c>
-      <c r="K251" t="s">
+      <c r="K255" t="s">
         <v>1541</v>
       </c>
-      <c r="L251">
+      <c r="L255">
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J252">
+    <row r="256" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J256">
         <v>21827004</v>
       </c>
-      <c r="K252" t="s">
+      <c r="K256" t="s">
         <v>1553</v>
       </c>
-      <c r="L252">
+      <c r="L256">
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J253">
+    <row r="257" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J257">
         <v>21828319</v>
       </c>
-      <c r="K253" t="s">
+      <c r="K257" t="s">
         <v>1561</v>
       </c>
-      <c r="L253">
+      <c r="L257">
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J254">
+    <row r="258" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J258">
         <v>21828323</v>
       </c>
-      <c r="K254" t="s">
+      <c r="K258" t="s">
         <v>1564</v>
       </c>
-      <c r="L254">
+      <c r="L258">
         <v>99</v>
       </c>
     </row>
-    <row r="255" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J255">
+    <row r="259" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J259">
         <v>21828345</v>
       </c>
-      <c r="K255" t="s">
+      <c r="K259" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="256" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J256">
+      <c r="L259">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J260">
         <v>21828348</v>
       </c>
-      <c r="K256" t="s">
+      <c r="K260" t="s">
         <v>1569</v>
-      </c>
-      <c r="L256">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="257" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J257">
-        <v>21829612</v>
-      </c>
-      <c r="K257" t="s">
-        <v>1572</v>
-      </c>
-      <c r="L257">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J258">
-        <v>21832233</v>
-      </c>
-      <c r="K258" t="s">
-        <v>1582</v>
-      </c>
-      <c r="L258">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J259">
-        <v>21832234</v>
-      </c>
-      <c r="K259" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="260" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J260">
-        <v>21833286</v>
-      </c>
-      <c r="K260" t="s">
-        <v>1597</v>
       </c>
       <c r="L260">
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J261">
+        <v>21829612</v>
+      </c>
+      <c r="K261" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J262">
+        <v>21832233</v>
+      </c>
+      <c r="K262" t="s">
+        <v>1582</v>
+      </c>
+      <c r="L262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J263">
+        <v>21832234</v>
+      </c>
+      <c r="K263" t="s">
+        <v>1584</v>
+      </c>
+      <c r="L263">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J264">
+        <v>21833286</v>
+      </c>
+      <c r="K264" t="s">
+        <v>1597</v>
+      </c>
+      <c r="L264">
+        <v>7</v>
+      </c>
+      <c r="M264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J265">
         <v>21834796</v>
       </c>
-      <c r="K261" t="s">
+      <c r="K265" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="262" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J262">
+      <c r="N265" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="266" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J266">
         <v>21834808</v>
       </c>
-      <c r="K262" t="s">
+      <c r="K266" t="s">
         <v>1619</v>
       </c>
-      <c r="L262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J263">
+      <c r="L266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J267">
         <v>21834907</v>
       </c>
-      <c r="K263" t="s">
+      <c r="K267" t="s">
         <v>1623</v>
-      </c>
-      <c r="L263">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J264">
-        <v>21835006</v>
-      </c>
-      <c r="K264" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="265" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J265">
-        <v>21835157</v>
-      </c>
-      <c r="K265" t="s">
-        <v>1633</v>
-      </c>
-      <c r="L265">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J266">
-        <v>21835210</v>
-      </c>
-      <c r="K266" t="s">
-        <v>1638</v>
-      </c>
-      <c r="L266">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J267">
-        <v>21793808</v>
-      </c>
-      <c r="K267" t="s">
-        <v>1644</v>
       </c>
       <c r="L267">
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J268">
-        <v>21835308</v>
+        <v>21835006</v>
       </c>
       <c r="K268" t="s">
-        <v>1647</v>
+        <v>1626</v>
       </c>
       <c r="L268">
         <v>99</v>
       </c>
     </row>
-    <row r="269" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J269">
-        <v>21835515</v>
+        <v>21835157</v>
       </c>
       <c r="K269" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="270" spans="10:12" x14ac:dyDescent="0.25">
+        <v>1633</v>
+      </c>
+      <c r="L269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J270">
-        <v>21835669</v>
+        <v>21835210</v>
       </c>
       <c r="K270" t="s">
-        <v>1680</v>
+        <v>1638</v>
       </c>
       <c r="L270">
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J271">
-        <v>21835849</v>
+        <v>21793808</v>
       </c>
       <c r="K271" t="s">
-        <v>1683</v>
+        <v>1644</v>
       </c>
       <c r="L271">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="10:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J272">
-        <v>21835867</v>
+        <v>21835308</v>
       </c>
       <c r="K272" t="s">
-        <v>146</v>
+        <v>1647</v>
       </c>
       <c r="L272">
         <v>99</v>
       </c>
     </row>
-    <row r="273" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J273">
+        <v>21835515</v>
+      </c>
+      <c r="K273" t="s">
+        <v>1666</v>
+      </c>
+      <c r="L273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J274">
+        <v>21835669</v>
+      </c>
+      <c r="K274" t="s">
+        <v>1680</v>
+      </c>
+      <c r="L274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J275">
+        <v>21835849</v>
+      </c>
+      <c r="K275" t="s">
+        <v>1683</v>
+      </c>
+      <c r="L275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J276">
+        <v>21835867</v>
+      </c>
+      <c r="K276" t="s">
+        <v>146</v>
+      </c>
+      <c r="L276">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="277" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J277">
         <v>21835988</v>
       </c>
-      <c r="K273" t="s">
+      <c r="K277" t="s">
         <v>1689</v>
       </c>
-      <c r="L273">
+      <c r="L277">
+        <v>7</v>
+      </c>
+      <c r="M277">
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J274">
+    <row r="278" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J278">
         <v>21836916</v>
       </c>
-      <c r="K274" t="s">
+      <c r="K278" t="s">
         <v>1695</v>
       </c>
-      <c r="L274">
+      <c r="L278">
         <v>99</v>
       </c>
     </row>
-    <row r="275" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J275">
+    <row r="279" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J279">
         <v>21836921</v>
       </c>
-      <c r="K275" t="s">
+      <c r="K279" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="276" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J276">
+      <c r="L279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J280">
         <v>21837677</v>
       </c>
-      <c r="K276" t="s">
+      <c r="K280" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="277" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J277">
+      <c r="L280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J281">
         <v>21838181</v>
       </c>
-      <c r="K277" t="s">
+      <c r="K281" t="s">
         <v>1706</v>
-      </c>
-      <c r="L277">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="278" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J278">
-        <v>21838552</v>
-      </c>
-      <c r="K278" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="279" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J279">
-        <v>21838749</v>
-      </c>
-      <c r="K279" t="s">
-        <v>1716</v>
-      </c>
-      <c r="L279">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J280">
-        <v>21838753</v>
-      </c>
-      <c r="K280" t="s">
-        <v>1680</v>
-      </c>
-      <c r="L280">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J281">
-        <v>21839098</v>
-      </c>
-      <c r="K281" t="s">
-        <v>1727</v>
       </c>
       <c r="L281">
         <v>99</v>
       </c>
     </row>
-    <row r="282" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J282">
+        <v>21838552</v>
+      </c>
+      <c r="K282" t="s">
+        <v>1709</v>
+      </c>
+      <c r="L282">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J283">
+        <v>21838749</v>
+      </c>
+      <c r="K283" t="s">
+        <v>1716</v>
+      </c>
+      <c r="L283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J284">
+        <v>21838753</v>
+      </c>
+      <c r="K284" t="s">
+        <v>1680</v>
+      </c>
+      <c r="L284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J285">
+        <v>21839098</v>
+      </c>
+      <c r="K285" t="s">
+        <v>1727</v>
+      </c>
+      <c r="L285">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="286" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J286">
         <v>21839099</v>
       </c>
-      <c r="K282" t="s">
+      <c r="K286" t="s">
         <v>1728</v>
       </c>
-      <c r="L282">
+      <c r="L286">
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J283">
+    <row r="287" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J287">
         <v>21839320</v>
       </c>
-      <c r="K283" t="s">
+      <c r="K287" t="s">
         <v>1733</v>
       </c>
-      <c r="L283">
+      <c r="L287">
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J284">
+    <row r="288" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J288">
         <v>21839452</v>
       </c>
-      <c r="K284" t="s">
+      <c r="K288" t="s">
         <v>1740</v>
       </c>
-      <c r="L284">
+      <c r="L288">
         <v>99</v>
       </c>
     </row>
-    <row r="285" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J285">
+    <row r="289" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J289">
         <v>21839469</v>
       </c>
-      <c r="K285" t="s">
+      <c r="K289" t="s">
         <v>1741</v>
       </c>
-      <c r="L285">
+      <c r="L289">
+        <v>7</v>
+      </c>
+      <c r="M289">
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J286">
+    <row r="290" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J290">
         <v>21840400</v>
       </c>
-      <c r="K286" t="s">
+      <c r="K290" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="287" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J287">
+      <c r="L290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J291">
         <v>21840651</v>
       </c>
-      <c r="K287" t="s">
+      <c r="K291" t="s">
         <v>58</v>
       </c>
-      <c r="L287">
+      <c r="L291">
         <v>99</v>
       </c>
     </row>
-    <row r="288" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J288">
+    <row r="292" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J292">
         <v>21846576</v>
       </c>
-      <c r="K288" t="s">
+      <c r="K292" t="s">
         <v>1773</v>
       </c>
-      <c r="L288">
+      <c r="L292">
+        <v>7</v>
+      </c>
+      <c r="M292">
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J289">
+    <row r="293" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J293">
         <v>21847295</v>
       </c>
-      <c r="K289" t="s">
+      <c r="K293" t="s">
         <v>914</v>
       </c>
-      <c r="L289">
+      <c r="L293">
         <v>99</v>
       </c>
     </row>
-    <row r="290" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J290">
+    <row r="294" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J294">
         <v>21847610</v>
       </c>
-      <c r="K290" t="s">
+      <c r="K294" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="291" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J291">
+      <c r="L294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J295">
         <v>21847886</v>
       </c>
-      <c r="K291" t="s">
+      <c r="K295" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="292" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J292">
+      <c r="L295">
+        <v>7</v>
+      </c>
+      <c r="M295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J296">
         <v>21848150</v>
       </c>
-      <c r="K292" t="s">
+      <c r="K296" t="s">
         <v>1868</v>
       </c>
-      <c r="L292">
+      <c r="L296">
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J293">
+    <row r="297" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J297">
         <v>21849030</v>
       </c>
-      <c r="K293" t="s">
+      <c r="K297" t="s">
         <v>1881</v>
       </c>
-      <c r="L293">
+      <c r="L297">
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J294">
+    <row r="298" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J298">
         <v>21849727</v>
       </c>
-      <c r="K294" t="s">
+      <c r="K298" t="s">
         <v>1890</v>
-      </c>
-      <c r="L294">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="295" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J295">
-        <v>21850069</v>
-      </c>
-      <c r="K295" t="s">
-        <v>744</v>
-      </c>
-      <c r="L295">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="296" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J296">
-        <v>21850189</v>
-      </c>
-      <c r="K296" t="s">
-        <v>1894</v>
-      </c>
-      <c r="L296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J297">
-        <v>21851018</v>
-      </c>
-      <c r="K297" t="s">
-        <v>1399</v>
-      </c>
-      <c r="L297">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="298" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J298">
-        <v>21851583</v>
-      </c>
-      <c r="K298" t="s">
-        <v>1923</v>
       </c>
       <c r="L298">
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J299">
-        <v>21851613</v>
+        <v>21850069</v>
       </c>
       <c r="K299" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="300" spans="10:12" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+      <c r="L299">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="300" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J300">
-        <v>21852228</v>
+        <v>21850189</v>
       </c>
       <c r="K300" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="301" spans="10:12" x14ac:dyDescent="0.25">
+        <v>1894</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J301">
-        <v>21852275</v>
+        <v>21851018</v>
       </c>
       <c r="K301" t="s">
-        <v>1940</v>
+        <v>1399</v>
       </c>
       <c r="L301">
         <v>99</v>
       </c>
     </row>
-    <row r="302" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J302">
-        <v>21854074</v>
+        <v>21851583</v>
       </c>
       <c r="K302" t="s">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="303" spans="10:12" x14ac:dyDescent="0.25">
+        <v>1923</v>
+      </c>
+      <c r="L302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J303">
-        <v>21854111</v>
+        <v>21851613</v>
       </c>
       <c r="K303" t="s">
-        <v>1953</v>
+        <v>1928</v>
       </c>
       <c r="L303">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="304" spans="10:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J304">
-        <v>21867759</v>
+        <v>21852228</v>
       </c>
       <c r="K304" t="s">
-        <v>1975</v>
+        <v>1935</v>
       </c>
       <c r="L304">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J305">
-        <v>21869567</v>
+        <v>21852275</v>
       </c>
       <c r="K305" t="s">
-        <v>1988</v>
+        <v>1940</v>
       </c>
       <c r="L305">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="306" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J306">
-        <v>21869996</v>
+        <v>21854074</v>
       </c>
       <c r="K306" t="s">
-        <v>1990</v>
+        <v>1952</v>
+      </c>
+      <c r="L306">
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J307">
-        <v>21871342</v>
+        <v>21854111</v>
       </c>
       <c r="K307" t="s">
-        <v>1993</v>
+        <v>1953</v>
       </c>
       <c r="L307">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J308">
-        <v>21872245</v>
+        <v>21867759</v>
       </c>
       <c r="K308" t="s">
-        <v>176</v>
+        <v>1975</v>
       </c>
       <c r="L308">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J309">
-        <v>21872626</v>
+        <v>21869567</v>
       </c>
       <c r="K309" t="s">
-        <v>176</v>
+        <v>1988</v>
       </c>
       <c r="L309">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J310">
-        <v>21872771</v>
+        <v>21869996</v>
       </c>
       <c r="K310" t="s">
-        <v>320</v>
+        <v>1990</v>
       </c>
       <c r="L310">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J311">
-        <v>21872863</v>
+        <v>21871342</v>
       </c>
       <c r="K311" t="s">
-        <v>2019</v>
+        <v>1993</v>
       </c>
       <c r="L311">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J312">
-        <v>21877466</v>
+        <v>21872245</v>
       </c>
       <c r="K312" t="s">
-        <v>2021</v>
+        <v>176</v>
       </c>
       <c r="L312">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="313" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J313">
-        <v>21877503</v>
+        <v>21872626</v>
       </c>
       <c r="K313" t="s">
-        <v>2024</v>
+        <v>176</v>
       </c>
       <c r="L313">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="314" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J314">
-        <v>21879739</v>
+        <v>21872771</v>
       </c>
       <c r="K314" t="s">
-        <v>58</v>
+        <v>320</v>
       </c>
       <c r="L314">
         <v>99</v>
@@ -27107,34 +27581,90 @@
     </row>
     <row r="315" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J315">
-        <v>21882742</v>
+        <v>21872863</v>
       </c>
       <c r="K315" t="s">
-        <v>2032</v>
+        <v>2019</v>
+      </c>
+      <c r="L315">
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J316">
-        <v>21883169</v>
+        <v>21877466</v>
       </c>
       <c r="K316" t="s">
-        <v>2033</v>
+        <v>2021</v>
+      </c>
+      <c r="L316">
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J317">
-        <v>21884432</v>
+        <v>21877503</v>
       </c>
       <c r="K317" t="s">
-        <v>2040</v>
+        <v>2024</v>
+      </c>
+      <c r="L317">
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J318">
+        <v>21879739</v>
+      </c>
+      <c r="K318" t="s">
+        <v>58</v>
+      </c>
+      <c r="L318">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="319" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J319">
+        <v>21882742</v>
+      </c>
+      <c r="K319" t="s">
+        <v>2032</v>
+      </c>
+      <c r="L319">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J320">
+        <v>21883169</v>
+      </c>
+      <c r="K320" t="s">
+        <v>2033</v>
+      </c>
+      <c r="L320">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J321">
+        <v>21884432</v>
+      </c>
+      <c r="K321" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L321">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J322">
         <v>21887881</v>
       </c>
-      <c r="K318" t="s">
+      <c r="K322" t="s">
         <v>2045</v>
+      </c>
+      <c r="L322">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -43881,8 +44411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF8C145-F05D-5E4D-B0ED-4C8CC48B7836}">
   <dimension ref="A1:F1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
